--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ljmu-my.sharepoint.com/personal/csmlphil_ljmu_ac_uk/Documents/4216 Computer Science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CECEAC13-2E22-46FC-875B-6A16E4536E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40BDBE-C88E-401E-8F23-541F1E3FA774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2880" windowWidth="23985" windowHeight="11385" xr2:uid="{9BC24017-D5FA-4DB5-970B-CF2F523B1376}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9BC24017-D5FA-4DB5-970B-CF2F523B1376}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,15 +50,6 @@
     <t>Task 3 Agree &amp; Plan Role Rotation</t>
   </si>
   <si>
-    <t>Task 4 Search for suitable crime data</t>
-  </si>
-  <si>
-    <t>Task 4a Review data suitability</t>
-  </si>
-  <si>
-    <t>Task 4 Agree Data Set</t>
-  </si>
-  <si>
     <t>Task 5 Determine Project Outline</t>
   </si>
   <si>
@@ -153,9 +143,6 @@
     <t>Luke Crren</t>
   </si>
   <si>
-    <t>Ti</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
@@ -184,6 +171,18 @@
   </si>
   <si>
     <t>Milestone Plan</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Task 4a | Search for suitable crime data</t>
+  </si>
+  <si>
+    <t>Task 4b | Review data suitability</t>
+  </si>
+  <si>
+    <t>Task 4c | Agree Data Set</t>
   </si>
 </sst>
 </file>
@@ -216,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,13 +224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,38 +499,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -529,9 +524,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B378F0-6F23-4C0F-8892-B4E9BA63B6B5}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,377 +890,377 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="1" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="O3" s="17" t="s">
-        <v>30</v>
+      <c r="M3" s="28"/>
+      <c r="O3" s="29" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="34">
         <v>44581</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="35">
         <v>44584</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
         <v>44582</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>44585</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="O4" s="18" t="s">
-        <v>31</v>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="O4" s="30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="34">
         <v>44582</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="35">
         <v>44584</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7">
+        <v>44586</v>
+      </c>
+      <c r="K5" s="7">
+        <v>44586</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11">
-        <v>44586</v>
-      </c>
-      <c r="K5" s="11">
-        <v>44586</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>32</v>
+      <c r="M5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="38">
         <v>44581</v>
       </c>
-      <c r="F6" s="29">
-        <v>44586</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="F6" s="39">
+        <v>44586</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3">
         <v>44582</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>44585</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="O6" s="19" t="s">
-        <v>33</v>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="O6" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>44582</v>
       </c>
-      <c r="F7" s="25">
-        <v>44586</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="11">
-        <v>44586</v>
-      </c>
-      <c r="K7" s="11">
-        <v>44586</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="F7" s="19">
+        <v>44586</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>34</v>
+      <c r="J7" s="7">
+        <v>44586</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44586</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>44581</v>
       </c>
-      <c r="F8" s="25">
-        <v>44586</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="F8" s="19">
+        <v>44586</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3">
         <v>44582</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>44585</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="O8" s="19" t="s">
-        <v>35</v>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="O8" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="28">
-        <v>44586</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="E9" s="22">
+        <v>44586</v>
+      </c>
+      <c r="F9" s="23">
         <v>44591</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="11">
-        <v>44586</v>
-      </c>
-      <c r="K9" s="11">
-        <v>44586</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>36</v>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="7">
+        <v>44586</v>
+      </c>
+      <c r="K9" s="7">
+        <v>44586</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="22">
         <v>44617</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="23">
         <v>44593</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3">
         <v>44582</v>
       </c>
-      <c r="K10" s="7">
-        <v>44586</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>37</v>
+      <c r="K10" s="3">
+        <v>44586</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="22">
+        <v>44582</v>
+      </c>
+      <c r="F11" s="23">
+        <v>44586</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>44582</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44586</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="28">
-        <v>44582</v>
-      </c>
-      <c r="F11" s="29">
-        <v>44586</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>44582</v>
-      </c>
-      <c r="K11" s="7">
-        <v>44586</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="B12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="22">
         <v>44582</v>
       </c>
-      <c r="F12" s="29">
-        <v>44586</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="23">
+        <v>44586</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <v>44582</v>
       </c>
-      <c r="K12" s="15">
-        <v>44586</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>18</v>
+      <c r="K12" s="11">
+        <v>44586</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="B13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="22">
         <v>44582</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="23">
         <v>44586</v>
       </c>
     </row>
